--- a/文法（ぶんぽう）/動詞変形.xlsx
+++ b/文法（ぶんぽう）/動詞変形.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D5C8F6-3016-41E2-8EC5-CECCF5EEC5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5A8511-1C55-4BF2-8FE7-0304BD9750BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6696" yWindow="1404" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="588" windowWidth="22632" windowHeight="10584" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="376">
   <si>
     <t>原形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1620,10 +1620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自动（ている）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>他动（てある）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1649,6 +1645,18 @@
   </si>
   <si>
     <t>入ってある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けてある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动正在（ている）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他动好了（てある）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1777,10 +1785,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2077,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2120,17 +2128,17 @@
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G1" s="12"/>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="K1" s="9"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="1" t="s">
         <v>124</v>
       </c>
@@ -2157,34 +2165,34 @@
       <c r="Y1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10" t="s">
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10" t="s">
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10" t="s">
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10" t="s">
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10" t="s">
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10" t="s">
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="AM1" s="10"/>
+      <c r="AM1" s="9"/>
     </row>
     <row r="2" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -2194,10 +2202,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>365</v>
@@ -2497,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
@@ -2607,7 +2615,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
@@ -2717,10 +2725,10 @@
         <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>348</v>
@@ -3505,12 +3513,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="D1:E1"/>
@@ -3520,6 +3522,12 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3530,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE612903-48AA-4CCB-BF3C-0DB1B65DD0D4}">
   <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3573,17 +3581,17 @@
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F1" s="12"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="1" t="s">
         <v>124</v>
       </c>
@@ -3610,34 +3618,34 @@
       <c r="X1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10" t="s">
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10" t="s">
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10" t="s">
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10" t="s">
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10" t="s">
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10" t="s">
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="AL1" s="10"/>
+      <c r="AL1" s="9"/>
     </row>
     <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.45">
       <c r="C2" s="1" t="s">
@@ -3647,10 +3655,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>365</v>
@@ -3757,9 +3765,11 @@
         <v>206</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>368</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>321</v>
       </c>
@@ -4332,7 +4342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6C4D29-FDD6-4DCE-975F-B954A31A3BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
